--- a/Evaluation/Results/summary_all_logs.xlsx
+++ b/Evaluation/Results/summary_all_logs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mi98gr/Library/Mobile Documents/com~apple~CloudDocs/PhD/35_Deviation Patterns/06_Gitlab_conditional/Evaluation/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mi98gr/Library/Mobile Documents/com~apple~CloudDocs/PhD/35_Deviation Patterns/01_pyCharm/Evaluation_opt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3551F961-58B3-004D-8451-7890F38EB128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70B755C-5A74-0B4D-9575-B3612A6C725B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Logs" sheetId="9" r:id="rId1"/>
@@ -872,6 +872,9 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1027,9 +1030,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1348,24 +1348,24 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="71"/>
-      <c r="D4" s="72" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
     </row>
     <row r="5" spans="3:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="C5" s="71"/>
-      <c r="D5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="55" t="s">
         <v>10</v>
       </c>
@@ -1505,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CACA773C-36A0-024C-AD62-CB029E763913}">
   <dimension ref="B1:O12"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9:O12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1518,39 +1518,39 @@
   <sheetData>
     <row r="1" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="94" t="s">
+      <c r="C2" s="92"/>
+      <c r="D2" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="84" t="s">
+      <c r="F2" s="84"/>
+      <c r="G2" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="85"/>
-      <c r="I2" s="84" t="s">
+      <c r="H2" s="86"/>
+      <c r="I2" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86" t="s">
+      <c r="J2" s="86"/>
+      <c r="K2" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="87"/>
-      <c r="M2" s="73" t="s">
+      <c r="L2" s="88"/>
+      <c r="M2" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="74"/>
-      <c r="O2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="76"/>
     </row>
     <row r="3" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="92"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="95"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
@@ -1586,7 +1586,7 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1621,17 +1621,17 @@
         <v>1</v>
       </c>
       <c r="M4" s="65">
-        <v>5.8139534883720929E-2</v>
+        <v>5.6818181818181816E-2</v>
       </c>
       <c r="N4" s="66">
         <v>0.83333333333333337</v>
       </c>
-      <c r="O4" s="77">
+      <c r="O4" s="78">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="80"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1664,15 +1664,15 @@
         <v>0.9</v>
       </c>
       <c r="M5" s="67">
-        <v>0.19047619047619047</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="N5" s="68">
-        <v>0.8</v>
-      </c>
-      <c r="O5" s="78"/>
+        <v>1</v>
+      </c>
+      <c r="O5" s="79"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="80"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1710,10 +1710,10 @@
       <c r="N6" s="68">
         <v>0.54545454545454541</v>
       </c>
-      <c r="O6" s="78"/>
+      <c r="O6" s="79"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="80"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1746,15 +1746,15 @@
         <v>1</v>
       </c>
       <c r="M7" s="67">
-        <v>0.33333333333333331</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="N7" s="68">
         <v>1</v>
       </c>
-      <c r="O7" s="78"/>
+      <c r="O7" s="79"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="89"/>
+      <c r="B8" s="90"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1787,15 +1787,15 @@
         <v>1</v>
       </c>
       <c r="M8" s="69">
-        <v>0.2</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="N8" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="O8" s="79"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="80"/>
     </row>
     <row r="9" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="81" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="G9" s="14">
         <f>+AVERAGE(Metrics!G9,Metrics!G14,Metrics!G19,Metrics!G24,Metrics!G29,Metrics!G34,Metrics!G39,Metrics!G44)</f>
-        <v>0.86989950080635781</v>
+        <v>0.86807023652473525</v>
       </c>
       <c r="H9" s="14">
         <f>+AVERAGE(Metrics!H9,Metrics!H14,Metrics!H19,Metrics!H24,Metrics!H29,Metrics!H34,Metrics!H39,Metrics!H44)</f>
@@ -1845,13 +1845,13 @@
         <f>+AVERAGE(Metrics!N9,Metrics!N14,Metrics!N19,Metrics!N24,Metrics!N29,Metrics!N34,Metrics!N39,Metrics!N44)</f>
         <v>1</v>
       </c>
-      <c r="O9" s="76">
+      <c r="O9" s="77">
         <f>+AVERAGE(Metrics!O9,Metrics!O14,Metrics!O19,Metrics!O24,Metrics!O29,Metrics!O34,Metrics!O39,Metrics!O44)</f>
         <v>4.25</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="80"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="3" t="s">
         <v>1</v>
       </c>
@@ -1899,10 +1899,10 @@
         <f>+AVERAGE(Metrics!N10,Metrics!N15,Metrics!N20,Metrics!N25,Metrics!N30,Metrics!N35,Metrics!N40,Metrics!N45)</f>
         <v>0.98906449553001285</v>
       </c>
-      <c r="O10" s="76"/>
+      <c r="O10" s="77"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="80"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="H11" s="16">
         <f>+AVERAGE(Metrics!H11,Metrics!H16,Metrics!H21,Metrics!H26,Metrics!H31,Metrics!H36,Metrics!H41,Metrics!H46)</f>
-        <v>0.74907267992002935</v>
+        <v>0.7434673890438932</v>
       </c>
       <c r="I11" s="16">
         <f>+AVERAGE(Metrics!I11,Metrics!I16,Metrics!I21,Metrics!I26,Metrics!I31,Metrics!I36,Metrics!I41,Metrics!I46)</f>
@@ -1950,10 +1950,10 @@
         <f>+AVERAGE(Metrics!N11,Metrics!N16,Metrics!N21,Metrics!N26,Metrics!N31,Metrics!N36,Metrics!N41,Metrics!N46)</f>
         <v>1</v>
       </c>
-      <c r="O11" s="76"/>
+      <c r="O11" s="77"/>
     </row>
     <row r="12" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="81"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="17" t="s">
         <v>4</v>
       </c>
@@ -2001,7 +2001,7 @@
         <f>+AVERAGE(Metrics!N13,Metrics!N18,Metrics!N23,Metrics!N28,Metrics!N33,Metrics!N38,Metrics!N43,Metrics!N48)</f>
         <v>0.39448938016909746</v>
       </c>
-      <c r="O12" s="76"/>
+      <c r="O12" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2026,8 +2026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595A3DF4-B718-E04F-B99A-14DE3B148B57}">
   <dimension ref="B1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="150" zoomScaleNormal="85" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView view="pageBreakPreview" topLeftCell="F1" zoomScale="150" zoomScaleNormal="85" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2040,36 +2040,36 @@
   <sheetData>
     <row r="1" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="103"/>
+      <c r="C2" s="104"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="85"/>
-      <c r="G2" s="84" t="s">
+      <c r="F2" s="86"/>
+      <c r="G2" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="85"/>
-      <c r="I2" s="84" t="s">
+      <c r="H2" s="86"/>
+      <c r="I2" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86" t="s">
+      <c r="J2" s="86"/>
+      <c r="K2" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="101"/>
-      <c r="M2" s="99" t="s">
+      <c r="L2" s="102"/>
+      <c r="M2" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="100"/>
-      <c r="O2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="102"/>
     </row>
     <row r="3" spans="2:15" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="92"/>
-      <c r="C3" s="104"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="105"/>
       <c r="D3" s="2"/>
       <c r="E3" s="32" t="s">
         <v>5</v>
@@ -2101,15 +2101,15 @@
       <c r="N3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="123" t="s">
+      <c r="O3" s="71" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="105"/>
+      <c r="C4" s="106"/>
       <c r="D4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2138,18 +2138,18 @@
         <v>1</v>
       </c>
       <c r="M4" s="43">
-        <v>5.8139534883720929E-2</v>
+        <v>5.6818181818181816E-2</v>
       </c>
       <c r="N4" s="9">
         <v>0.83333333333333337</v>
       </c>
-      <c r="O4" s="102">
+      <c r="O4" s="103">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="80"/>
-      <c r="C5" s="106"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="107"/>
       <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2178,16 +2178,16 @@
         <v>0.9</v>
       </c>
       <c r="M5" s="44">
-        <v>0.23809523809523808</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="N5" s="16">
         <v>1</v>
       </c>
-      <c r="O5" s="97"/>
+      <c r="O5" s="98"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="80"/>
-      <c r="C6" s="106"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="107"/>
       <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2221,11 +2221,11 @@
       <c r="N6" s="16">
         <v>0.54545454545454541</v>
       </c>
-      <c r="O6" s="97"/>
+      <c r="O6" s="98"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="80"/>
-      <c r="C7" s="106"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="107"/>
       <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
@@ -2254,16 +2254,16 @@
         <v>1</v>
       </c>
       <c r="M7" s="44">
-        <v>0.33333333333333331</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="N7" s="16">
         <v>1</v>
       </c>
-      <c r="O7" s="97"/>
+      <c r="O7" s="98"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="89"/>
-      <c r="C8" s="107"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="108"/>
       <c r="D8" s="5" t="s">
         <v>4</v>
       </c>
@@ -2297,13 +2297,13 @@
       <c r="N8" s="12">
         <v>1</v>
       </c>
-      <c r="O8" s="98"/>
+      <c r="O8" s="99"/>
     </row>
     <row r="9" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="109" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -2316,7 +2316,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="46">
-        <v>0.86311787072243351</v>
+        <v>0.86090225563909772</v>
       </c>
       <c r="H9" s="40">
         <v>1</v>
@@ -2339,13 +2339,13 @@
       <c r="N9" s="14">
         <v>1</v>
       </c>
-      <c r="O9" s="96">
+      <c r="O9" s="97">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="109"/>
-      <c r="C10" s="106"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="3" t="s">
         <v>1</v>
       </c>
@@ -2379,11 +2379,11 @@
       <c r="N10" s="16">
         <v>1</v>
       </c>
-      <c r="O10" s="97"/>
+      <c r="O10" s="98"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="109"/>
-      <c r="C11" s="106"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="107"/>
       <c r="D11" s="3" t="s">
         <v>2</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="36">
-        <v>0.70967741935483875</v>
+        <v>0.70161290322580649</v>
       </c>
       <c r="I11" s="44">
         <v>0</v>
@@ -2417,11 +2417,11 @@
       <c r="N11" s="16">
         <v>1</v>
       </c>
-      <c r="O11" s="97"/>
+      <c r="O11" s="98"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="109"/>
-      <c r="C12" s="106"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="107"/>
       <c r="D12" s="3" t="s">
         <v>3</v>
       </c>
@@ -2455,11 +2455,11 @@
       <c r="N12" s="16">
         <v>0</v>
       </c>
-      <c r="O12" s="97"/>
+      <c r="O12" s="98"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="109"/>
-      <c r="C13" s="107"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="108"/>
       <c r="D13" s="5" t="s">
         <v>4</v>
       </c>
@@ -2493,11 +2493,11 @@
       <c r="N13" s="12">
         <v>0.40540540540540543</v>
       </c>
-      <c r="O13" s="98"/>
+      <c r="O13" s="99"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="109"/>
-      <c r="C14" s="108" t="s">
+      <c r="B14" s="110"/>
+      <c r="C14" s="109" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -2510,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="46">
-        <v>0.9427480916030534</v>
+        <v>0.92164179104477617</v>
       </c>
       <c r="H14" s="40">
         <v>1</v>
@@ -2533,13 +2533,13 @@
       <c r="N14" s="14">
         <v>1</v>
       </c>
-      <c r="O14" s="96">
+      <c r="O14" s="97">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="109"/>
-      <c r="C15" s="106"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="107"/>
       <c r="D15" s="3" t="s">
         <v>1</v>
       </c>
@@ -2573,11 +2573,11 @@
       <c r="N15" s="16">
         <v>1</v>
       </c>
-      <c r="O15" s="97"/>
+      <c r="O15" s="98"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="109"/>
-      <c r="C16" s="106"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="107"/>
       <c r="D16" s="3" t="s">
         <v>2</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="36">
-        <v>0.88372093023255816</v>
+        <v>0.85810810810810811</v>
       </c>
       <c r="I16" s="44">
         <v>0</v>
@@ -2611,11 +2611,11 @@
       <c r="N16" s="16">
         <v>1</v>
       </c>
-      <c r="O16" s="97"/>
+      <c r="O16" s="98"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="109"/>
-      <c r="C17" s="106"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="107"/>
       <c r="D17" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,11 +2649,11 @@
       <c r="N17" s="16">
         <v>0</v>
       </c>
-      <c r="O17" s="97"/>
+      <c r="O17" s="98"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="109"/>
-      <c r="C18" s="107"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="108"/>
       <c r="D18" s="5" t="s">
         <v>4</v>
       </c>
@@ -2687,11 +2687,11 @@
       <c r="N18" s="12">
         <v>0.41156462585034015</v>
       </c>
-      <c r="O18" s="98"/>
+      <c r="O18" s="99"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="109"/>
-      <c r="C19" s="108" t="s">
+      <c r="B19" s="110"/>
+      <c r="C19" s="109" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -2704,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="46">
-        <v>0.81294964028776984</v>
+        <v>0.82926829268292679</v>
       </c>
       <c r="H19" s="40">
         <v>1</v>
@@ -2727,13 +2727,13 @@
       <c r="N19" s="14">
         <v>1</v>
       </c>
-      <c r="O19" s="96">
+      <c r="O19" s="97">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="109"/>
-      <c r="C20" s="106"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="107"/>
       <c r="D20" s="3" t="s">
         <v>1</v>
       </c>
@@ -2767,11 +2767,11 @@
       <c r="N20" s="16">
         <v>1</v>
       </c>
-      <c r="O20" s="97"/>
+      <c r="O20" s="98"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="109"/>
-      <c r="C21" s="106"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="107"/>
       <c r="D21" s="3" t="s">
         <v>2</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="36">
-        <v>0.77966101694915257</v>
+        <v>0.76271186440677963</v>
       </c>
       <c r="I21" s="44">
         <v>0</v>
@@ -2805,11 +2805,11 @@
       <c r="N21" s="16">
         <v>1</v>
       </c>
-      <c r="O21" s="97"/>
+      <c r="O21" s="98"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="109"/>
-      <c r="C22" s="106"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="107"/>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
@@ -2843,11 +2843,11 @@
       <c r="N22" s="16">
         <v>0</v>
       </c>
-      <c r="O22" s="97"/>
+      <c r="O22" s="98"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="109"/>
-      <c r="C23" s="107"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="5" t="s">
         <v>4</v>
       </c>
@@ -2881,11 +2881,11 @@
       <c r="N23" s="12">
         <v>0.47806004618937642</v>
       </c>
-      <c r="O23" s="98"/>
+      <c r="O23" s="99"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="109"/>
-      <c r="C24" s="108" t="s">
+      <c r="B24" s="110"/>
+      <c r="C24" s="109" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="46">
-        <v>0.8728813559322034</v>
+        <v>0.86919831223628696</v>
       </c>
       <c r="H24" s="40">
         <v>1</v>
@@ -2921,13 +2921,13 @@
       <c r="N24" s="14">
         <v>1</v>
       </c>
-      <c r="O24" s="96">
+      <c r="O24" s="97">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="109"/>
-      <c r="C25" s="106"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="107"/>
       <c r="D25" s="3" t="s">
         <v>1</v>
       </c>
@@ -2961,11 +2961,11 @@
       <c r="N25" s="16">
         <v>1</v>
       </c>
-      <c r="O25" s="97"/>
+      <c r="O25" s="98"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="109"/>
-      <c r="C26" s="106"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="107"/>
       <c r="D26" s="3" t="s">
         <v>2</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="36">
-        <v>0.7931034482758621</v>
+        <v>0.78620689655172415</v>
       </c>
       <c r="I26" s="44">
         <v>0</v>
@@ -2999,11 +2999,11 @@
       <c r="N26" s="16">
         <v>1</v>
       </c>
-      <c r="O26" s="97"/>
+      <c r="O26" s="98"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="109"/>
-      <c r="C27" s="106"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="107"/>
       <c r="D27" s="3" t="s">
         <v>3</v>
       </c>
@@ -3037,11 +3037,11 @@
       <c r="N27" s="16">
         <v>0</v>
       </c>
-      <c r="O27" s="97"/>
+      <c r="O27" s="98"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="109"/>
-      <c r="C28" s="107"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="108"/>
       <c r="D28" s="5" t="s">
         <v>4</v>
       </c>
@@ -3075,11 +3075,11 @@
       <c r="N28" s="12">
         <v>0.35064935064935066</v>
       </c>
-      <c r="O28" s="98"/>
+      <c r="O28" s="99"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="109"/>
-      <c r="C29" s="108" t="s">
+      <c r="B29" s="110"/>
+      <c r="C29" s="109" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="6" t="s">
@@ -3092,7 +3092,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="46">
-        <v>0.87017543859649127</v>
+        <v>0.85931558935361219</v>
       </c>
       <c r="H29" s="40">
         <v>1</v>
@@ -3115,13 +3115,13 @@
       <c r="N29" s="14">
         <v>1</v>
       </c>
-      <c r="O29" s="96">
+      <c r="O29" s="97">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="109"/>
-      <c r="C30" s="106"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="107"/>
       <c r="D30" s="3" t="s">
         <v>1</v>
       </c>
@@ -3155,11 +3155,11 @@
       <c r="N30" s="16">
         <v>0.98148148148148151</v>
       </c>
-      <c r="O30" s="97"/>
+      <c r="O30" s="98"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="109"/>
-      <c r="C31" s="106"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="107"/>
       <c r="D31" s="3" t="s">
         <v>2</v>
       </c>
@@ -3193,11 +3193,11 @@
       <c r="N31" s="16">
         <v>1</v>
       </c>
-      <c r="O31" s="97"/>
+      <c r="O31" s="98"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="109"/>
-      <c r="C32" s="106"/>
+      <c r="B32" s="110"/>
+      <c r="C32" s="107"/>
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
@@ -3231,11 +3231,11 @@
       <c r="N32" s="16">
         <v>0</v>
       </c>
-      <c r="O32" s="97"/>
+      <c r="O32" s="98"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="109"/>
-      <c r="C33" s="107"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="108"/>
       <c r="D33" s="5" t="s">
         <v>4</v>
       </c>
@@ -3269,11 +3269,11 @@
       <c r="N33" s="12">
         <v>0.34759358288770054</v>
       </c>
-      <c r="O33" s="98"/>
+      <c r="O33" s="99"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B34" s="109"/>
-      <c r="C34" s="108" t="s">
+      <c r="B34" s="110"/>
+      <c r="C34" s="109" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="6" t="s">
@@ -3286,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="46">
-        <v>0.85555555555555551</v>
+        <v>0.85931558935361219</v>
       </c>
       <c r="H34" s="40">
         <v>1</v>
@@ -3309,13 +3309,13 @@
       <c r="N34" s="14">
         <v>1</v>
       </c>
-      <c r="O34" s="96">
+      <c r="O34" s="97">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="109"/>
-      <c r="C35" s="106"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="107"/>
       <c r="D35" s="3" t="s">
         <v>1</v>
       </c>
@@ -3349,11 +3349,11 @@
       <c r="N35" s="16">
         <v>0.93103448275862066</v>
       </c>
-      <c r="O35" s="97"/>
+      <c r="O35" s="98"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B36" s="109"/>
-      <c r="C36" s="106"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="107"/>
       <c r="D36" s="3" t="s">
         <v>2</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="36">
-        <v>0.74675324675324672</v>
+        <v>0.75</v>
       </c>
       <c r="I36" s="44">
         <v>0</v>
@@ -3387,11 +3387,11 @@
       <c r="N36" s="16">
         <v>1</v>
       </c>
-      <c r="O36" s="97"/>
+      <c r="O36" s="98"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="109"/>
-      <c r="C37" s="106"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="107"/>
       <c r="D37" s="3" t="s">
         <v>3</v>
       </c>
@@ -3425,11 +3425,11 @@
       <c r="N37" s="16">
         <v>0</v>
       </c>
-      <c r="O37" s="97"/>
+      <c r="O37" s="98"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="109"/>
-      <c r="C38" s="107"/>
+      <c r="B38" s="110"/>
+      <c r="C38" s="108"/>
       <c r="D38" s="5" t="s">
         <v>4</v>
       </c>
@@ -3463,11 +3463,11 @@
       <c r="N38" s="12">
         <v>0.42465753424657532</v>
       </c>
-      <c r="O38" s="98"/>
+      <c r="O38" s="99"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="109"/>
-      <c r="C39" s="108" t="s">
+      <c r="B39" s="110"/>
+      <c r="C39" s="109" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="6" t="s">
@@ -3503,13 +3503,13 @@
       <c r="N39" s="14">
         <v>1</v>
       </c>
-      <c r="O39" s="96">
+      <c r="O39" s="97">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B40" s="109"/>
-      <c r="C40" s="106"/>
+      <c r="B40" s="110"/>
+      <c r="C40" s="107"/>
       <c r="D40" s="3" t="s">
         <v>1</v>
       </c>
@@ -3543,11 +3543,11 @@
       <c r="N40" s="16">
         <v>1</v>
       </c>
-      <c r="O40" s="97"/>
+      <c r="O40" s="98"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B41" s="109"/>
-      <c r="C41" s="106"/>
+      <c r="B41" s="110"/>
+      <c r="C41" s="107"/>
       <c r="D41" s="3" t="s">
         <v>2</v>
       </c>
@@ -3581,11 +3581,11 @@
       <c r="N41" s="16">
         <v>1</v>
       </c>
-      <c r="O41" s="97"/>
+      <c r="O41" s="98"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B42" s="109"/>
-      <c r="C42" s="106"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="107"/>
       <c r="D42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3619,11 +3619,11 @@
       <c r="N42" s="16">
         <v>0</v>
       </c>
-      <c r="O42" s="97"/>
+      <c r="O42" s="98"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B43" s="109"/>
-      <c r="C43" s="107"/>
+      <c r="B43" s="110"/>
+      <c r="C43" s="108"/>
       <c r="D43" s="5" t="s">
         <v>4</v>
       </c>
@@ -3657,11 +3657,11 @@
       <c r="N43" s="12">
         <v>0.40465116279069768</v>
       </c>
-      <c r="O43" s="98"/>
+      <c r="O43" s="99"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B44" s="109"/>
-      <c r="C44" s="108" t="s">
+      <c r="B44" s="110"/>
+      <c r="C44" s="109" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="6" t="s">
@@ -3674,7 +3674,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="46">
-        <v>0.88256227758007122</v>
+        <v>0.88571428571428568</v>
       </c>
       <c r="H44" s="40">
         <v>1</v>
@@ -3697,13 +3697,13 @@
       <c r="N44" s="14">
         <v>1</v>
       </c>
-      <c r="O44" s="96">
+      <c r="O44" s="97">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B45" s="109"/>
-      <c r="C45" s="106"/>
+      <c r="B45" s="110"/>
+      <c r="C45" s="107"/>
       <c r="D45" s="3" t="s">
         <v>1</v>
       </c>
@@ -3737,11 +3737,11 @@
       <c r="N45" s="16">
         <v>1</v>
       </c>
-      <c r="O45" s="97"/>
+      <c r="O45" s="98"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B46" s="109"/>
-      <c r="C46" s="106"/>
+      <c r="B46" s="110"/>
+      <c r="C46" s="107"/>
       <c r="D46" s="3" t="s">
         <v>2</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="36">
-        <v>0.68867924528301883</v>
+        <v>0.69811320754716977</v>
       </c>
       <c r="I46" s="44">
         <v>0</v>
@@ -3775,11 +3775,11 @@
       <c r="N46" s="16">
         <v>1</v>
       </c>
-      <c r="O46" s="97"/>
+      <c r="O46" s="98"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B47" s="109"/>
-      <c r="C47" s="106"/>
+      <c r="B47" s="110"/>
+      <c r="C47" s="107"/>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3813,11 +3813,11 @@
       <c r="N47" s="16">
         <v>0</v>
       </c>
-      <c r="O47" s="97"/>
+      <c r="O47" s="98"/>
     </row>
     <row r="48" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="110"/>
-      <c r="C48" s="111"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="112"/>
       <c r="D48" s="17" t="s">
         <v>4</v>
       </c>
@@ -3851,7 +3851,7 @@
       <c r="N48" s="18">
         <v>0.33333333333333331</v>
       </c>
-      <c r="O48" s="98"/>
+      <c r="O48" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -3898,10 +3898,10 @@
   <sheetData>
     <row r="1" spans="3:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="114"/>
+      <c r="D2" s="115"/>
       <c r="E2" s="49" t="s">
         <v>32</v>
       </c>
@@ -3910,10 +3910,10 @@
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="112"/>
+      <c r="D3" s="113"/>
       <c r="E3" s="11">
         <v>11.795085</v>
       </c>
@@ -3922,7 +3922,7 @@
       </c>
     </row>
     <row r="4" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="116" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="53" t="s">
@@ -3936,7 +3936,7 @@
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C5" s="109"/>
+      <c r="C5" s="110"/>
       <c r="D5" s="48" t="s">
         <v>11</v>
       </c>
@@ -3948,7 +3948,7 @@
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C6" s="109"/>
+      <c r="C6" s="110"/>
       <c r="D6" s="48" t="s">
         <v>12</v>
       </c>
@@ -3960,7 +3960,7 @@
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C7" s="109"/>
+      <c r="C7" s="110"/>
       <c r="D7" s="48" t="s">
         <v>13</v>
       </c>
@@ -3972,7 +3972,7 @@
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C8" s="109"/>
+      <c r="C8" s="110"/>
       <c r="D8" s="48" t="s">
         <v>15</v>
       </c>
@@ -3984,7 +3984,7 @@
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C9" s="109"/>
+      <c r="C9" s="110"/>
       <c r="D9" s="48" t="s">
         <v>14</v>
       </c>
@@ -3996,7 +3996,7 @@
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C10" s="109"/>
+      <c r="C10" s="110"/>
       <c r="D10" s="48" t="s">
         <v>16</v>
       </c>
@@ -4008,7 +4008,7 @@
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C11" s="116"/>
+      <c r="C11" s="117"/>
       <c r="D11" s="52" t="s">
         <v>17</v>
       </c>
@@ -4020,10 +4020,10 @@
       </c>
     </row>
     <row r="12" spans="3:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="117"/>
+      <c r="D12" s="118"/>
       <c r="E12" s="19">
         <v>2.8695119999999998</v>
       </c>
@@ -4061,25 +4061,25 @@
   <sheetData>
     <row r="1" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="121" t="s">
+      <c r="C2" s="92"/>
+      <c r="D2" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="120"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="121"/>
     </row>
     <row r="3" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="92"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="122"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="123"/>
       <c r="E3" s="25" t="s">
         <v>0</v>
       </c>
@@ -4097,10 +4097,10 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="119"/>
+      <c r="C4" s="120"/>
       <c r="D4">
         <v>18</v>
       </c>
@@ -4121,7 +4121,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="110" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -4147,7 +4147,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="109"/>
+      <c r="B6" s="110"/>
       <c r="C6" s="23" t="s">
         <v>11</v>
       </c>
@@ -4175,7 +4175,7 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="109"/>
+      <c r="B7" s="110"/>
       <c r="C7" s="23" t="s">
         <v>12</v>
       </c>
@@ -4203,7 +4203,7 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="109"/>
+      <c r="B8" s="110"/>
       <c r="C8" s="23" t="s">
         <v>13</v>
       </c>
@@ -4231,7 +4231,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="109"/>
+      <c r="B9" s="110"/>
       <c r="C9" s="23" t="s">
         <v>15</v>
       </c>
@@ -4259,7 +4259,7 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="109"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="23" t="s">
         <v>14</v>
       </c>
@@ -4283,7 +4283,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="109"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="23" t="s">
         <v>16</v>
       </c>
@@ -4307,7 +4307,7 @@
       </c>
     </row>
     <row r="12" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="110"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="24" t="s">
         <v>17</v>
       </c>
